--- a/SupplementaryTable1_Stats.xlsx
+++ b/SupplementaryTable1_Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="691" documentId="8_{35ED98D8-224D-5C43-9372-6B38939FA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{493A26A8-7583-A545-9C7F-1DFD4F2C0A56}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="8_{35ED98D8-224D-5C43-9372-6B38939FA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88B5D0A9-F19C-A34F-9217-5CBE87C04185}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="520" windowWidth="12900" windowHeight="16120" firstSheet="1" activeTab="1" xr2:uid="{84AAB071-DF4B-6049-9AD6-5042B45842E2}"/>
+    <workbookView xWindow="10000" yWindow="500" windowWidth="18800" windowHeight="16140" xr2:uid="{84AAB071-DF4B-6049-9AD6-5042B45842E2}"/>
   </bookViews>
   <sheets>
     <sheet name="1a - test statistics" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="1667">
   <si>
     <t>group1</t>
   </si>
@@ -5197,12 +5197,15 @@
   <si>
     <t>Untreated:C:28-Treated:C:28</t>
   </si>
+  <si>
+    <t>Post-hoc test sheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5309,6 +5312,13 @@
       <color theme="1"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5330,28 +5340,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5375,6 +5382,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5390,6 +5399,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5691,297 +5704,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8562E7-966A-7347-A8F9-C818DD0C3785}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="69.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="6"/>
-    <col min="6" max="6" width="18.1640625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="69.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="18.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="23" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>1666</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>281</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>243.31299999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="21">
         <v>8.5000000000000001E-35</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>282</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2.27</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>108</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>13.657999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="21">
         <v>1.0149999999999999E-5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>76</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>25.863</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="21">
         <v>1.0149999999999999E-5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>76</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>32.28</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="22">
         <v>6.8800000000000003E-4</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>123</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>57.28</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="21">
         <v>2.2400000000000001E-12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>123</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>91.13597</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="21">
         <v>9.9800000000000005E-15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>1448</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>267</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>165.8083</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="21">
         <v>1.0199999999999999E-35</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>1456</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>125</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>18.09911</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="21">
         <v>2.82E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>1491</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>96</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>34.173999999999999</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>7</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="21">
         <v>3.9969999999999999E-14</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>1503</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>1504</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>48</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>40.928570000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="21">
         <v>2.48E-5</v>
       </c>
     </row>
@@ -6237,19 +6255,19 @@
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" t="s">
         <v>1433</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" t="s">
         <v>1434</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26894,19 +26912,19 @@
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s">
         <v>1436</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" t="s">
         <v>1437</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -47543,19 +47561,19 @@
       <c r="A1" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>421</v>
       </c>
     </row>
@@ -47563,19 +47581,19 @@
       <c r="A2" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>-7.1370000000000003E-2</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>0.13486059</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="14">
         <v>-0.52921289999999999</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>0.59710078</v>
       </c>
     </row>
@@ -47583,19 +47601,19 @@
       <c r="A3" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>0.25197936999999998</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>0.11030302</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>2.2844286199999999</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="15">
         <v>2.313728E-2</v>
       </c>
     </row>
@@ -47603,19 +47621,19 @@
       <c r="A4" t="s">
         <v>428</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>0.30101011999999999</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>0.11698699</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>2.5730222899999999</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <v>1.0626119999999999E-2</v>
       </c>
     </row>
@@ -47623,19 +47641,19 @@
       <c r="A5" t="s">
         <v>428</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>0.32334932999999999</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>0.11714570000000001</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>2.7602321399999998</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <v>6.1792000000000001E-3</v>
       </c>
     </row>
@@ -47643,19 +47661,19 @@
       <c r="A6" t="s">
         <v>428</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>0.37238009</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>0.12345977</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>3.0162058799999998</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <v>2.8083000000000001E-3</v>
       </c>
     </row>
@@ -47663,19 +47681,19 @@
       <c r="A7" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>4.903076E-2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>9.6029639999999999E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>0.51057940000000002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>0.61007065000000005</v>
       </c>
     </row>
@@ -47808,7 +47826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5452393-70E4-7446-BE59-84EA79F013DE}">
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="67" workbookViewId="0">
+    <sheetView topLeftCell="A263" zoomScale="67" workbookViewId="0">
       <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
@@ -53075,174 +53093,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="11" customFormat="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>10.220000000000001</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>3.18</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <v>17.260000000000002</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="11" customFormat="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>-1.87</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>-4.09</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>0.35</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>7.68</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>1.38</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <v>13.98</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="11" customFormat="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>-12.09</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>-19.12</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>-5.0599999999999996</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="11" customFormat="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>-2.54</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>-11.19</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>6.11</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="11" customFormat="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>3.27</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>15.83</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>2E-3</v>
       </c>
     </row>
@@ -54961,683 +54973,683 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>-1.5306246999999999</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>6.2931081799999997E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.94396623000000002</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>-0.18886459999999999</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.42509946539999999</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1.1895022</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.117121054</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>-2.6695606000000001</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3.7975285999999999E-3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5.6962930000000002E-2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>-1.0642452</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.1436088143</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>-2.1924755999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>1.4172591E-2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.21258887000000001</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>-2.8993981</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>1.8693995000000001E-3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2.8040989999999998E-2</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>-1.3589141</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>8.7086899699999998E-2</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>-2.4270746999999999</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>7.6105603999999999E-3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.11415841</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>-0.34955609999999998</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.36333593539999998</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>-3.1976219000000001</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>6.9282909999999998E-4</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1.0392439999999999E-2</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>-1.7399552</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>4.0933441399999999E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.61400162000000003</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>-2.7351554</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>3.1175418E-3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>4.676313E-2</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>-0.79768430000000001</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.21252686330000001</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>18.09911</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>-0.45146009999999998</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.3258289714</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="20" customFormat="1">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:5" s="17" customFormat="1">
+      <c r="A28" s="16" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="20" customFormat="1">
-      <c r="A29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" s="20" customFormat="1">
-      <c r="A30" s="5" t="s">
+    <row r="29" spans="1:5" s="17" customFormat="1">
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" s="17" customFormat="1">
+      <c r="A30" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="B30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" s="20" customFormat="1">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" s="17" customFormat="1">
+      <c r="A31" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="20" customFormat="1">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" s="20" customFormat="1">
-      <c r="A33" s="5" t="s">
+    <row r="32" spans="1:5" s="17" customFormat="1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" s="17" customFormat="1">
+      <c r="A33" s="4" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="20" customFormat="1">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:5" s="17" customFormat="1">
+      <c r="A34" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="20" customFormat="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="20" t="s">
+    <row r="35" spans="1:5" s="17" customFormat="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="20" customFormat="1">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:5" s="17" customFormat="1">
+      <c r="A36" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="17">
         <v>-0.50032989999999999</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="17">
         <v>-4.1340320000000004</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>3.1333730000000002</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="17">
         <v>0.78580950000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="20" customFormat="1">
-      <c r="A37" s="21"/>
-    </row>
-    <row r="38" spans="1:5" s="20" customFormat="1">
-      <c r="A38" s="21" t="s">
+    <row r="37" spans="1:5" s="17" customFormat="1">
+      <c r="A37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" s="17" customFormat="1">
+      <c r="A38" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="20" customFormat="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20" t="s">
+    <row r="39" spans="1:5" s="17" customFormat="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="20" customFormat="1">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:5" s="17" customFormat="1">
+      <c r="A40" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="17">
         <v>-10.248442000000001</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="17">
         <v>-15.523133</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="17">
         <v>-4.973751</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="17">
         <v>2.7900000000000001E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="20" customFormat="1">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:5" s="17" customFormat="1">
+      <c r="A41" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="17">
         <v>-2.3153039999999998</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="17">
         <v>-7.7542</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="17">
         <v>3.1235909999999998</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="17">
         <v>0.57262460000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="20" customFormat="1">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:5" s="17" customFormat="1">
+      <c r="A42" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="17">
         <v>7.9331379999999996</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="17">
         <v>2.6277219999999999</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="17">
         <v>13.238554000000001</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="17">
         <v>1.5629999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="20" customFormat="1">
-      <c r="A43" s="21"/>
-    </row>
-    <row r="44" spans="1:5" s="20" customFormat="1">
-      <c r="A44" s="21" t="s">
+    <row r="43" spans="1:5" s="17" customFormat="1">
+      <c r="A43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" s="17" customFormat="1">
+      <c r="A44" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="20" customFormat="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20" t="s">
+    <row r="45" spans="1:5" s="17" customFormat="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="20" customFormat="1">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:5" s="17" customFormat="1">
+      <c r="A46" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="17">
         <v>-3.4469983700000002</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="17">
         <v>-12.7785834</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="17">
         <v>5.8845869999999998</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="17">
         <v>0.89326930000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="20" customFormat="1">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:5" s="17" customFormat="1">
+      <c r="A47" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="17">
         <v>-15.98351572</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="17">
         <v>-25.041921800000001</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="17">
         <v>-6.9251100000000001</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="17">
         <v>1.63E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="20" customFormat="1">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:5" s="17" customFormat="1">
+      <c r="A48" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="17">
         <v>-7.7898974699999997</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="17">
         <v>-16.9329462</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="17">
         <v>1.353151</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="17">
         <v>0.14268140000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="20" customFormat="1">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:5" s="17" customFormat="1">
+      <c r="A49" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="17">
         <v>0.16299477000000001</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="17">
         <v>-9.3881870000000003</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="17">
         <v>9.7141769999999994</v>
       </c>
-      <c r="E49" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="20" customFormat="1">
-      <c r="A50" s="21" t="s">
+      <c r="E49" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="17" customFormat="1">
+      <c r="A50" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="17">
         <v>-7.7466475900000002</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="17">
         <v>-16.980516999999999</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="17">
         <v>1.487222</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="17">
         <v>0.1549594</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="20" customFormat="1">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:5" s="17" customFormat="1">
+      <c r="A51" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="17">
         <v>-12.53651734</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="17">
         <v>-21.594923399999999</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="17">
         <v>-3.4781110000000002</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="17">
         <v>1.4212000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="20" customFormat="1">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:5" s="17" customFormat="1">
+      <c r="A52" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="17">
         <v>-4.3428991000000003</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="17">
         <v>-13.4859478</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="17">
         <v>4.8001500000000004</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="17">
         <v>0.74299360000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="20" customFormat="1">
-      <c r="A53" s="21" t="s">
+    <row r="53" spans="1:5" s="17" customFormat="1">
+      <c r="A53" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="17">
         <v>3.6099931399999998</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="17">
         <v>-5.9411886999999997</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="17">
         <v>13.161175</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="17">
         <v>0.88360130000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="20" customFormat="1">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:5" s="17" customFormat="1">
+      <c r="A54" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="17">
         <v>-4.29964922</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="17">
         <v>-13.533518600000001</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="17">
         <v>4.9342199999999998</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="17">
         <v>0.75872879999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="20" customFormat="1">
-      <c r="A55" s="21" t="s">
+    <row r="55" spans="1:5" s="17" customFormat="1">
+      <c r="A55" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="17">
         <v>8.1936182500000001</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="17">
         <v>-0.67044300000000001</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="17">
         <v>17.057679</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="17">
         <v>8.7651400000000004E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="20" customFormat="1">
-      <c r="A56" s="21" t="s">
+    <row r="56" spans="1:5" s="17" customFormat="1">
+      <c r="A56" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="17">
         <v>16.14651048</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="17">
         <v>6.8620441000000003</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="17">
         <v>25.430976999999999</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="17">
         <v>2.2500000000000001E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="20" customFormat="1">
-      <c r="A57" s="21" t="s">
+    <row r="57" spans="1:5" s="17" customFormat="1">
+      <c r="A57" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="17">
         <v>8.2368681200000005</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="17">
         <v>-0.72084289999999995</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="17">
         <v>17.194579000000001</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="17">
         <v>9.0692999999999996E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="20" customFormat="1">
-      <c r="A58" s="21" t="s">
+    <row r="58" spans="1:5" s="17" customFormat="1">
+      <c r="A58" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="17">
         <v>7.9528922299999998</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="17">
         <v>-1.4141743</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="17">
         <v>17.319959000000001</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="17">
         <v>0.14541080000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="20" customFormat="1">
-      <c r="A59" s="21" t="s">
+    <row r="59" spans="1:5" s="17" customFormat="1">
+      <c r="A59" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="17">
         <v>4.3249870000000003E-2</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="17">
         <v>-9.0000462999999993</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="17">
         <v>9.0865460000000002</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B60">
@@ -55649,27 +55661,27 @@
       <c r="D60">
         <v>1.5460929999999999</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="17">
         <v>0.1573444</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="18" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="5"/>
+      <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>167</v>
       </c>
@@ -55684,7 +55696,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B67">
@@ -55696,28 +55708,28 @@
       <c r="D67">
         <v>9.6777730000000002</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="17">
         <v>0.14853569999999999</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="5"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="A68" s="4"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="5"/>
+      <c r="A70" s="4"/>
       <c r="B70" t="s">
         <v>167</v>
       </c>
@@ -55727,45 +55739,45 @@
       <c r="D70" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>1485</v>
       </c>
       <c r="B71">
         <v>12.63097</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="17">
         <v>5.4125519999999998</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="17">
         <v>19.84939</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="17">
         <v>7.7450000000000001E-4</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="5"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
+      <c r="A72" s="4"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="5"/>
+      <c r="A74" s="4"/>
       <c r="B74" t="s">
         <v>167</v>
       </c>
@@ -55775,183 +55787,183 @@
       <c r="D74" t="s">
         <v>169</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>1479</v>
       </c>
       <c r="B75">
         <v>7.5230620000000004</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="17">
         <v>-10.119673000000001</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="17">
         <v>25.165800000000001</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="17">
         <v>0.68116429999999994</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>1480</v>
       </c>
       <c r="B76">
         <v>14.659844</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="17">
         <v>-0.31880399999999998</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="17">
         <v>29.638490000000001</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="17">
         <v>5.7415300000000002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>1481</v>
       </c>
       <c r="B77">
         <v>18.88213</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="17">
         <v>3.9851100000000002</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="17">
         <v>33.779150000000001</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="17">
         <v>7.0048000000000003E-3</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>1482</v>
       </c>
       <c r="B78">
         <v>7.1367820000000002</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="17">
         <v>-5.3207319999999996</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="17">
         <v>19.5943</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="17">
         <v>0.44264959999999998</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>1483</v>
       </c>
       <c r="B79">
         <v>11.359068000000001</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="17">
         <v>-1.0001770000000001</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="17">
         <v>23.718309999999999</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="17">
         <v>8.3299200000000004E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>1484</v>
       </c>
       <c r="B80">
         <v>4.2222860000000004</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="17">
         <v>-3.8921920000000001</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="17">
         <v>12.33676</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="17">
         <v>0.52697570000000005</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="F81" s="20"/>
+      <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="F82" s="20"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="F83" s="20"/>
+      <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="18" t="s">
         <v>1487</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="21"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="5"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="5"/>
+      <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>167</v>
       </c>
@@ -55966,7 +55978,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B92">
@@ -55983,15 +55995,15 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="5"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="5"/>
+      <c r="A95" s="4"/>
       <c r="B95" t="s">
         <v>167</v>
       </c>
@@ -56006,7 +56018,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B96">
@@ -56023,7 +56035,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B97">
@@ -56040,7 +56052,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B98">
@@ -56057,15 +56069,15 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="5"/>
+      <c r="A99" s="4"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="5"/>
+      <c r="A101" s="4"/>
       <c r="B101" t="s">
         <v>167</v>
       </c>
@@ -56080,7 +56092,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>235</v>
       </c>
       <c r="B102">
@@ -56097,7 +56109,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B103">
@@ -56114,7 +56126,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B104">
@@ -56131,7 +56143,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B105">
@@ -56148,7 +56160,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B106">
@@ -56165,7 +56177,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>244</v>
       </c>
       <c r="B107">
@@ -56182,7 +56194,7 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B108">
@@ -56199,7 +56211,7 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B109">
@@ -56216,7 +56228,7 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B110">
@@ -56233,7 +56245,7 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B111">
@@ -56250,7 +56262,7 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B112">
@@ -56267,7 +56279,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B113">
@@ -56284,7 +56296,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B114">
@@ -56301,7 +56313,7 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B115">
@@ -56318,7 +56330,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>262</v>
       </c>
       <c r="B116">
@@ -56335,38 +56347,38 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="18" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="21"/>
+      <c r="A120" s="18"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="5"/>
+      <c r="A123" s="4"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="5"/>
+      <c r="A126" s="4"/>
       <c r="B126" t="s">
         <v>167</v>
       </c>
@@ -56381,7 +56393,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B127">
@@ -56398,15 +56410,15 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="5"/>
+      <c r="A128" s="4"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="5"/>
+      <c r="A130" s="4"/>
       <c r="B130" t="s">
         <v>167</v>
       </c>
@@ -56421,7 +56433,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B131">
@@ -56438,7 +56450,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B132">
@@ -56455,7 +56467,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B133">
@@ -56472,15 +56484,15 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="5"/>
+      <c r="A134" s="4"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="5"/>
+      <c r="A136" s="4"/>
       <c r="B136" t="s">
         <v>167</v>
       </c>
@@ -56495,7 +56507,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B137">
@@ -56512,7 +56524,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B138">
@@ -56529,7 +56541,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B139">
@@ -56546,7 +56558,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B140">
@@ -56563,7 +56575,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B141">
@@ -56580,7 +56592,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B142">
@@ -56597,7 +56609,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B143">
@@ -56614,7 +56626,7 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B144">
@@ -56631,7 +56643,7 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B145">
@@ -56648,7 +56660,7 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B146">
@@ -56665,7 +56677,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B147">
@@ -56682,7 +56694,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B148">
@@ -56699,7 +56711,7 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B149">
@@ -56716,7 +56728,7 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B150">
@@ -56733,7 +56745,7 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B151">
@@ -57529,1151 +57541,1151 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="20">
+      <c r="A34" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="17">
         <v>3.0557114472704301</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="17">
         <v>1.1226361189199401E-3</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="17">
         <v>7.40939838487161E-2</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="17" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="20">
+      <c r="A35" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="17">
         <v>0.80812203564176799</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="17">
         <v>0.209510166767157</v>
       </c>
-      <c r="D35" s="20">
-        <v>1</v>
-      </c>
-      <c r="E35" s="20" t="s">
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="20">
+      <c r="A36" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="17">
         <v>-2.2475894116286601</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="17">
         <v>1.2301191683641299E-2</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>0.81187865112032798</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="17" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="20">
+      <c r="A37" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="17">
         <v>2.9799500064290201</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="17">
         <v>1.4414771524903099E-3</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="17">
         <v>9.5137492064361007E-2</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="17" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="20">
+      <c r="A38" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="17">
         <v>-7.5761440841415797E-2</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="17">
         <v>0.46980444683554201</v>
       </c>
-      <c r="D38" s="20">
-        <v>1</v>
-      </c>
-      <c r="E38" s="20" t="s">
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="20">
+      <c r="A39" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="17">
         <v>2.1718279707872501</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="17">
         <v>1.4934320537351701E-2</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="17">
         <v>0.98566515546521605</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="17" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="20">
+      <c r="A40" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="17">
         <v>1.5909902576697299</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="17">
         <v>5.5805884149146098E-2</v>
       </c>
-      <c r="D40" s="20">
-        <v>1</v>
-      </c>
-      <c r="E40" s="20" t="s">
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="20">
+      <c r="A41" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="17">
         <v>-1.4647211896007</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="17">
         <v>7.1498500662474498E-2</v>
       </c>
-      <c r="D41" s="20">
-        <v>1</v>
-      </c>
-      <c r="E41" s="20" t="s">
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>1513</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="20">
+      <c r="A42" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="17">
         <v>0.78286822202796302</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="17">
         <v>0.21685225011985301</v>
       </c>
-      <c r="D42" s="20">
-        <v>1</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="20">
+      <c r="A43" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="17">
         <v>-1.38895974875928</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="17">
         <v>8.24224950709221E-2</v>
       </c>
-      <c r="D43" s="20">
-        <v>1</v>
-      </c>
-      <c r="E43" s="20" t="s">
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="20">
+      <c r="A44" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="17">
         <v>3.7123106012293698</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="20">
         <v>1.02687868070608E-4</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="17">
         <v>6.7773992926601799E-3</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="17" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="20">
+      <c r="A45" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="17">
         <v>0.65659915395893698</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="17">
         <v>0.25571934651838202</v>
       </c>
-      <c r="D45" s="20">
-        <v>1</v>
-      </c>
-      <c r="E45" s="20" t="s">
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="20">
+      <c r="A46" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="17">
         <v>2.9041885655875999</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="17">
         <v>1.8410316149018199E-3</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="17">
         <v>0.12150808658352</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="17" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="20">
+      <c r="A47" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="17">
         <v>0.73236059480035198</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="17">
         <v>0.231974251762608</v>
       </c>
-      <c r="D47" s="20">
-        <v>1</v>
-      </c>
-      <c r="E47" s="20" t="s">
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="20">
+      <c r="A48" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="17">
         <v>2.1213203435596402</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="17">
         <v>1.6947426762344599E-2</v>
       </c>
-      <c r="D48" s="20">
-        <v>1</v>
-      </c>
-      <c r="E48" s="20" t="s">
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="20">
+      <c r="A49" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="17">
         <v>0.88388347648318399</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="17">
         <v>0.188379558905791</v>
       </c>
-      <c r="D49" s="20">
-        <v>1</v>
-      </c>
-      <c r="E49" s="20" t="s">
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="20">
+      <c r="A50" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="17">
         <v>-2.1718279707872501</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="17">
         <v>1.4934320537351701E-2</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="17">
         <v>0.98566515546521605</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="17" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="20">
+      <c r="A51" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="17">
         <v>7.5761440841415797E-2</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="17">
         <v>0.46980444683554201</v>
       </c>
-      <c r="D51" s="20">
-        <v>1</v>
-      </c>
-      <c r="E51" s="20" t="s">
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="20">
+      <c r="A52" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="17">
         <v>-2.0960665299458299</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="17">
         <v>1.8038144791628099E-2</v>
       </c>
-      <c r="D52" s="20">
-        <v>1</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="20">
+      <c r="A53" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="17">
         <v>-0.70710678118654702</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="17">
         <v>0.23975006109347599</v>
       </c>
-      <c r="D53" s="20">
-        <v>1</v>
-      </c>
-      <c r="E53" s="20" t="s">
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="20">
+      <c r="A54" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="17">
         <v>-2.8284271247461898</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="17">
         <v>2.3388674905236301E-3</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="17">
         <v>0.154365254374559</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="17" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="20">
+      <c r="A55" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="17">
         <v>3.5607877195465401</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="20">
         <v>1.8487195895620399E-4</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="17">
         <v>1.22015492911095E-2</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="17" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="20">
+      <c r="A56" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="17">
         <v>0.50507627227610497</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="17">
         <v>0.306752633063955</v>
       </c>
-      <c r="D56" s="20">
-        <v>1</v>
-      </c>
-      <c r="E56" s="20" t="s">
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="20">
+      <c r="A57" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="17">
         <v>2.7526656839047701</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="17">
         <v>2.95561133300696E-3</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="17">
         <v>0.19507034797845901</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="17" t="s">
         <v>1529</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="20">
+      <c r="A58" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="17">
         <v>0.58083771311752097</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="17">
         <v>0.28067491747851597</v>
       </c>
-      <c r="D58" s="20">
-        <v>1</v>
-      </c>
-      <c r="E58" s="20" t="s">
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="20">
+      <c r="A59" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="17">
         <v>1.9697974618768099</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="17">
         <v>2.4430793797748301E-2</v>
       </c>
-      <c r="D59" s="20">
-        <v>1</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="D59" s="17">
+        <v>1</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="20">
+      <c r="A60" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="17">
         <v>-0.15152288168283101</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="17">
         <v>0.43978163112420898</v>
       </c>
-      <c r="D60" s="20">
-        <v>1</v>
-      </c>
-      <c r="E60" s="20" t="s">
+      <c r="D60" s="17">
+        <v>1</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="20">
+      <c r="A61" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="17">
         <v>2.6769042430633498</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="17">
         <v>3.7152934132441101E-3</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="17">
         <v>0.245209365274111</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="17" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="20">
+      <c r="A62" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="17">
         <v>0.68185296757274205</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="17">
         <v>0.24766596382821801</v>
       </c>
-      <c r="D62" s="20">
-        <v>1</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="20">
+      <c r="A63" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="17">
         <v>-2.3738584796976898</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="17">
         <v>8.80164801501538E-3</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="17">
         <v>0.58090876899101496</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="17" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="20">
+      <c r="A64" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="17">
         <v>-0.12626906806902599</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="17">
         <v>0.44975947017795798</v>
       </c>
-      <c r="D64" s="20">
-        <v>1</v>
-      </c>
-      <c r="E64" s="20" t="s">
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="20">
+      <c r="A65" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="17">
         <v>-2.29809703885627</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="17">
         <v>1.07781333800081E-2</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="17">
         <v>0.71135680308053895</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="17" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="20">
+      <c r="A66" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="17">
         <v>-0.90913729009698896</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="17">
         <v>0.18163883046804599</v>
       </c>
-      <c r="D66" s="20">
-        <v>1</v>
-      </c>
-      <c r="E66" s="20" t="s">
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="20">
+      <c r="A67" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="17">
         <v>-3.03045763365663</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="17">
         <v>1.2209172101383899E-3</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="17">
         <v>8.0580535869134107E-2</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="17" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="20">
+      <c r="A68" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="17">
         <v>-0.202030508910442</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="17">
         <v>0.41994643663563402</v>
       </c>
-      <c r="D68" s="20">
-        <v>1</v>
-      </c>
-      <c r="E68" s="20" t="s">
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="20">
+      <c r="A69" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="17">
         <v>-2.8789347519738002</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="17">
         <v>1.9951043974867498E-3</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="17">
         <v>0.13167689023412599</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="17" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="20">
+      <c r="A70" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="17">
         <v>2.9041885655875999</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="17">
         <v>1.8410316149018199E-3</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="17">
         <v>0.12150808658352</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="17" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="20">
+      <c r="A71" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="17">
         <v>-0.15152288168283101</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="17">
         <v>0.43978163112420898</v>
       </c>
-      <c r="D71" s="20">
-        <v>1</v>
-      </c>
-      <c r="E71" s="20" t="s">
+      <c r="D71" s="17">
+        <v>1</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="20">
+      <c r="A72" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="17">
         <v>2.0960665299458299</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="17">
         <v>1.8038144791628099E-2</v>
       </c>
-      <c r="D72" s="20">
-        <v>1</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="D72" s="17">
+        <v>1</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="20">
+      <c r="A73" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="17">
         <v>-7.5761440841415797E-2</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="17">
         <v>0.46980444683554201</v>
       </c>
-      <c r="D73" s="20">
-        <v>1</v>
-      </c>
-      <c r="E73" s="20" t="s">
+      <c r="D73" s="17">
+        <v>1</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="20">
+      <c r="A74" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="17">
         <v>1.31319830791787</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="17">
         <v>9.4558067010544297E-2</v>
       </c>
-      <c r="D74" s="20">
-        <v>1</v>
-      </c>
-      <c r="E74" s="20" t="s">
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="20">
+      <c r="A75" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="17">
         <v>-0.80812203564176799</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="17">
         <v>0.209510166767157</v>
       </c>
-      <c r="D75" s="20">
-        <v>1</v>
-      </c>
-      <c r="E75" s="20" t="s">
+      <c r="D75" s="17">
+        <v>1</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="20">
+      <c r="A76" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="17">
         <v>2.0203050891044199</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="17">
         <v>2.1675875630431302E-2</v>
       </c>
-      <c r="D76" s="20">
-        <v>1</v>
-      </c>
-      <c r="E76" s="20" t="s">
+      <c r="D76" s="17">
+        <v>1</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="20">
+      <c r="A77" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="17">
         <v>-0.65659915395893698</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="17">
         <v>0.25571934651838202</v>
       </c>
-      <c r="D77" s="20">
-        <v>1</v>
-      </c>
-      <c r="E77" s="20" t="s">
+      <c r="D77" s="17">
+        <v>1</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="20">
+      <c r="A78" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="17">
         <v>2.22233559801486</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="17">
         <v>1.31303170588977E-2</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="17">
         <v>0.86660092588725002</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="17" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="20">
+      <c r="A79" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="17">
         <v>1.6414978848973401</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="17">
         <v>5.0347052888777999E-2</v>
       </c>
-      <c r="D79" s="20">
-        <v>1</v>
-      </c>
-      <c r="E79" s="20" t="s">
+      <c r="D79" s="17">
+        <v>1</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="20">
+      <c r="A80" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="17">
         <v>-1.41421356237309</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="17">
         <v>7.8649603525142497E-2</v>
       </c>
-      <c r="D80" s="20">
-        <v>1</v>
-      </c>
-      <c r="E80" s="20" t="s">
+      <c r="D80" s="17">
+        <v>1</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="20">
+      <c r="A81" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="17">
         <v>0.83337584925557295</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="17">
         <v>0.202316395432597</v>
       </c>
-      <c r="D81" s="20">
-        <v>1</v>
-      </c>
-      <c r="E81" s="20" t="s">
+      <c r="D81" s="17">
+        <v>1</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="20">
+      <c r="A82" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="17">
         <v>-1.33845212153167</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="17">
         <v>9.0374548959240894E-2</v>
       </c>
-      <c r="D82" s="20">
-        <v>1</v>
-      </c>
-      <c r="E82" s="20" t="s">
+      <c r="D82" s="17">
+        <v>1</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="20">
+      <c r="A83" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B83" s="20">
+      <c r="B83" s="17">
         <v>5.0507627227610499E-2</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="17">
         <v>0.47985893575765098</v>
       </c>
-      <c r="D83" s="20">
-        <v>1</v>
-      </c>
-      <c r="E83" s="20" t="s">
+      <c r="D83" s="17">
+        <v>1</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="20">
+      <c r="A84" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="17">
         <v>-2.0708127163320298</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="17">
         <v>1.91881507025124E-2</v>
       </c>
-      <c r="D84" s="20">
-        <v>1</v>
-      </c>
-      <c r="E84" s="20" t="s">
+      <c r="D84" s="17">
+        <v>1</v>
+      </c>
+      <c r="E84" s="17" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="20">
+      <c r="A85" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="17">
         <v>0.75761440841415795</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="17">
         <v>0.224340925988507</v>
       </c>
-      <c r="D85" s="20">
-        <v>1</v>
-      </c>
-      <c r="E85" s="20" t="s">
+      <c r="D85" s="17">
+        <v>1</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="20">
+      <c r="A86" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B86" s="17">
         <v>-1.9192898346492</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="17">
         <v>2.7473831893543701E-2</v>
       </c>
-      <c r="D86" s="20">
-        <v>1</v>
-      </c>
-      <c r="E86" s="20" t="s">
+      <c r="D86" s="17">
+        <v>1</v>
+      </c>
+      <c r="E86" s="17" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="20">
+      <c r="A87" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="17">
         <v>0.9596449173246</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="17">
         <v>0.16861697724213701</v>
       </c>
-      <c r="D87" s="20">
-        <v>1</v>
-      </c>
-      <c r="E87" s="20" t="s">
+      <c r="D87" s="17">
+        <v>1</v>
+      </c>
+      <c r="E87" s="17" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="20">
+      <c r="A88" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="17">
         <v>-1.26269068069026</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="17">
         <v>0.103350182252495</v>
       </c>
-      <c r="D88" s="20">
-        <v>1</v>
-      </c>
-      <c r="E88" s="20" t="s">
+      <c r="D88" s="17">
+        <v>1</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="20">
+      <c r="A89" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="17">
         <v>3.9395949237536199</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="20">
         <v>4.0809651798521903E-5</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="17">
         <v>2.6934370187024401E-3</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="17" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="20">
+      <c r="A90" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="17">
         <v>0.88388347648318399</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="17">
         <v>0.188379558905791</v>
       </c>
-      <c r="D90" s="20">
-        <v>1</v>
-      </c>
-      <c r="E90" s="20" t="s">
+      <c r="D90" s="17">
+        <v>1</v>
+      </c>
+      <c r="E90" s="17" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="20">
+      <c r="A91" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B91" s="20">
+      <c r="B91" s="17">
         <v>3.1314728881118499</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="20">
         <v>8.6965922354945396E-4</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="17">
         <v>5.7397508754263901E-2</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="17" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="20">
+      <c r="A92" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="17">
         <v>0.9596449173246</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="17">
         <v>0.16861697724213701</v>
       </c>
-      <c r="D92" s="20">
-        <v>1</v>
-      </c>
-      <c r="E92" s="20" t="s">
+      <c r="D92" s="17">
+        <v>1</v>
+      </c>
+      <c r="E92" s="17" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="20">
+      <c r="A93" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B93" s="20">
+      <c r="B93" s="17">
         <v>2.3486046660838902</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="17">
         <v>9.4219511151228102E-3</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="17">
         <v>0.62184877359810498</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="17" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="20">
+      <c r="A94" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="17">
         <v>0.22728432252424699</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="17">
         <v>0.41010133147345701</v>
       </c>
-      <c r="D94" s="20">
-        <v>1</v>
-      </c>
-      <c r="E94" s="20" t="s">
+      <c r="D94" s="17">
+        <v>1</v>
+      </c>
+      <c r="E94" s="17" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="20">
+      <c r="A95" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="17">
         <v>3.0557114472704301</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="17">
         <v>1.1226361189199401E-3</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="17">
         <v>7.40939838487161E-2</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="17" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="20">
+      <c r="A96" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="17">
         <v>0.37880720420707897</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="17">
         <v>0.35241551860388598</v>
       </c>
-      <c r="D96" s="20">
-        <v>1</v>
-      </c>
-      <c r="E96" s="20" t="s">
+      <c r="D96" s="17">
+        <v>1</v>
+      </c>
+      <c r="E96" s="17" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="20">
+      <c r="A97" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="17">
         <v>3.2577419561808698</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="20">
         <v>5.6151237546573805E-4</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="17">
         <v>3.7059816780738698E-2</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="17" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="20">
+      <c r="A98" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="17">
         <v>1.03540635816601</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="17">
         <v>0.150239588816905</v>
       </c>
-      <c r="D98" s="20">
-        <v>1</v>
-      </c>
-      <c r="E98" s="20" t="s">
+      <c r="D98" s="17">
+        <v>1</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="20">
+      <c r="A99" s="17">
         <v>40.928571428571402</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="17">
         <v>2.29809703885627</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="17">
         <v>1.07781333800081E-2</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="17">
         <v>0.71135680308053895</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="17" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="13" t="s">
         <v>1572</v>
       </c>
     </row>

--- a/SupplementaryTable1_Stats.xlsx
+++ b/SupplementaryTable1_Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="8_{35ED98D8-224D-5C43-9372-6B38939FA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88B5D0A9-F19C-A34F-9217-5CBE87C04185}"/>
+  <xr:revisionPtr revIDLastSave="706" documentId="8_{35ED98D8-224D-5C43-9372-6B38939FA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0000A2-28CA-7142-8CD4-3E5B63192B8E}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="500" windowWidth="18800" windowHeight="16140" xr2:uid="{84AAB071-DF4B-6049-9AD6-5042B45842E2}"/>
+    <workbookView xWindow="2260" yWindow="500" windowWidth="28540" windowHeight="16120" xr2:uid="{84AAB071-DF4B-6049-9AD6-5042B45842E2}"/>
   </bookViews>
   <sheets>
     <sheet name="1a - test statistics" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4589" uniqueCount="1669">
   <si>
     <t>group1</t>
   </si>
@@ -5199,6 +5199,12 @@
   </si>
   <si>
     <t>Post-hoc test sheet</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1b - posthoc_RTLvsSurvived</t>
   </si>
 </sst>
 </file>
@@ -5704,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8562E7-966A-7347-A8F9-C818DD0C3785}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5716,7 +5722,7 @@
     <col min="4" max="5" width="10.83203125" style="5"/>
     <col min="6" max="6" width="18.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="5"/>
-    <col min="8" max="8" width="23" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="5" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -5751,22 +5757,25 @@
         <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D2" s="5">
-        <v>243.31299999999999</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="E2" s="5">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="21">
-        <v>8.5000000000000001E-35</v>
+      <c r="G2" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5774,22 +5783,25 @@
         <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" s="5">
-        <v>2.27</v>
+        <v>246.976</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5">
-        <v>0.51800000000000002</v>
+      <c r="G3" s="21">
+        <v>1.6899999999999999E-35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -47826,7 +47838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5452393-70E4-7446-BE59-84EA79F013DE}">
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>

--- a/SupplementaryTable1_Stats.xlsx
+++ b/SupplementaryTable1_Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1186" documentId="8_{35ED98D8-224D-5C43-9372-6B38939FA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A4E74DB-77EE-234D-AF33-C4E68FF3FB0C}"/>
+  <xr:revisionPtr revIDLastSave="1188" documentId="8_{35ED98D8-224D-5C43-9372-6B38939FA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5BFDF5-D1A2-AA4C-8361-B84BE261797F}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16120" firstSheet="5" activeTab="6" xr2:uid="{84AAB071-DF4B-6049-9AD6-5042B45842E2}"/>
+    <workbookView xWindow="12020" yWindow="500" windowWidth="28800" windowHeight="16120" firstSheet="5" activeTab="7" xr2:uid="{84AAB071-DF4B-6049-9AD6-5042B45842E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="20" r:id="rId1"/>
@@ -62048,7 +62048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01541C02-3E1C-0A42-BFB5-BFAE6B500EF9}">
   <dimension ref="A1:P433"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="109" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -73710,7 +73710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E09F257-9966-B44D-A7F5-F8577EE01BFE}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -74001,8 +74001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8B940-AE0C-7C47-BEB3-58C96E2D90E1}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -74137,7 +74137,7 @@
       <c r="C8" s="59">
         <v>8.7698290052774394E-11</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="52">
         <v>5.2618974031664598E-10</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -74154,7 +74154,7 @@
       <c r="C9" s="59">
         <v>1.49881982966798E-8</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="52">
         <v>8.9929189780079104E-8</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -74171,7 +74171,7 @@
       <c r="C10" s="59">
         <v>4.2397001301334802E-7</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="52">
         <v>2.5438200780800898E-6</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -74188,7 +74188,7 @@
       <c r="C11" s="59">
         <v>3.4914424644826299E-5</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="52">
         <v>2.0948654786895801E-4</v>
       </c>
       <c r="E11" s="13" t="s">
